--- a/test_input.xlsx
+++ b/test_input.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Liczebność</t>
   </si>
@@ -22,35 +22,23 @@
     <t>URL</t>
   </si>
   <si>
-    <t>5 mln Lajk dla PiS przeciw KODomitom</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/1199723020097048/</t>
+    <t>puppetswar</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/puppetswareu/</t>
   </si>
   <si>
     <t>Popieram Zbigniewa Ziobrę</t>
   </si>
   <si>
-    <t>https://www.facebook.com/groups/347947622220140/</t>
-  </si>
-  <si>
-    <t>Sympatycy redaktora Michała Rachonia - DOŁĄCZ DO NAS</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/638436457082482/</t>
-  </si>
-  <si>
-    <t>Nasz Premier Mateusz Morawiecki.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/202953826938682/</t>
+    <t>https://www.facebook.com/FundacjaOcalenie/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -61,6 +49,14 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -88,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
     <border>
       <left/>
@@ -101,25 +97,11 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -130,15 +112,21 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -370,52 +358,41 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>42900.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>123.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>39700.0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
-        <v>34700.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
-        <v>29700.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>